--- a/COVID-19 Serial Interval.xlsx
+++ b/COVID-19 Serial Interval.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eideyliu\Documents\GitHub\2019nCoV_proportion_asym\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -191,70 +199,79 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d"/>
+    <numFmt numFmtId="164" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -444,24 +461,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="29.14"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,9 +507,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -510,9 +530,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -533,9 +553,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -556,9 +576,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -579,9 +599,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -593,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -602,9 +622,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -625,9 +645,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -651,9 +671,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -677,9 +697,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -703,9 +723,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -729,9 +749,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
@@ -755,9 +775,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
@@ -781,9 +801,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
@@ -807,9 +827,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
@@ -833,9 +853,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>8</v>
@@ -859,9 +879,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
@@ -885,9 +905,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>8</v>
@@ -899,7 +919,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>20</v>
@@ -911,9 +931,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
@@ -937,9 +957,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
@@ -963,9 +983,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
@@ -977,7 +997,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>34</v>
@@ -989,9 +1009,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>8</v>
@@ -1015,9 +1035,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
@@ -1041,9 +1061,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>8</v>
@@ -1067,9 +1087,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>8</v>
@@ -1093,9 +1113,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>8</v>
@@ -1119,9 +1139,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>8</v>
@@ -1145,9 +1165,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>8</v>
@@ -1171,9 +1191,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>8</v>
@@ -1197,9 +1217,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
@@ -1211,7 +1231,7 @@
         <v>32</v>
       </c>
       <c r="E30" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>34</v>
@@ -1223,9 +1243,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>8</v>
@@ -1249,9 +1269,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>8</v>
@@ -1275,9 +1295,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
@@ -1301,9 +1321,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>8</v>
@@ -1327,9 +1347,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>8</v>
@@ -1353,9 +1373,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>8</v>
@@ -1367,7 +1387,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="1">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>34</v>
@@ -1379,9 +1399,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>8</v>
@@ -1405,9 +1425,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>17</v>
@@ -1431,9 +1451,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>17</v>
@@ -1457,9 +1477,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>17</v>
@@ -1483,9 +1503,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>17</v>
@@ -1497,7 +1517,7 @@
         <v>50</v>
       </c>
       <c r="E41" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>51</v>
@@ -1509,9 +1529,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>17</v>
@@ -1535,9 +1555,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>17</v>
@@ -1549,7 +1569,7 @@
         <v>50</v>
       </c>
       <c r="E43" s="4">
-        <v>43839.0</v>
+        <v>43839</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>51</v>
@@ -1561,9 +1581,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>17</v>
@@ -1575,7 +1595,7 @@
         <v>50</v>
       </c>
       <c r="E44" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>51</v>
@@ -1587,9 +1607,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>13</v>
@@ -1598,7 +1618,7 @@
         <v>50</v>
       </c>
       <c r="E45" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>51</v>
@@ -1610,9 +1630,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>9</v>
@@ -1621,7 +1641,7 @@
         <v>50</v>
       </c>
       <c r="E46" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>51</v>
@@ -1633,9 +1653,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>54</v>
@@ -1644,7 +1664,7 @@
         <v>50</v>
       </c>
       <c r="E47" s="4">
-        <v>43899.0</v>
+        <v>43899</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>51</v>
@@ -1656,9 +1676,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>37</v>
@@ -1667,7 +1687,7 @@
         <v>50</v>
       </c>
       <c r="E48" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>51</v>
@@ -1681,54 +1701,54 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D4"/>
-    <hyperlink r:id="rId4" ref="D5"/>
-    <hyperlink r:id="rId5" ref="D6"/>
-    <hyperlink r:id="rId6" ref="D7"/>
-    <hyperlink r:id="rId7" ref="D8"/>
-    <hyperlink r:id="rId8" ref="D9"/>
-    <hyperlink r:id="rId9" ref="D10"/>
-    <hyperlink r:id="rId10" ref="D11"/>
-    <hyperlink r:id="rId11" ref="D12"/>
-    <hyperlink r:id="rId12" ref="D13"/>
-    <hyperlink r:id="rId13" ref="D14"/>
-    <hyperlink r:id="rId14" ref="D15"/>
-    <hyperlink r:id="rId15" ref="D16"/>
-    <hyperlink r:id="rId16" ref="D17"/>
-    <hyperlink r:id="rId17" ref="D18"/>
-    <hyperlink r:id="rId18" ref="D19"/>
-    <hyperlink r:id="rId19" ref="D20"/>
-    <hyperlink r:id="rId20" ref="D21"/>
-    <hyperlink r:id="rId21" ref="D22"/>
-    <hyperlink r:id="rId22" ref="D23"/>
-    <hyperlink r:id="rId23" ref="D24"/>
-    <hyperlink r:id="rId24" ref="D25"/>
-    <hyperlink r:id="rId25" ref="D26"/>
-    <hyperlink r:id="rId26" ref="D27"/>
-    <hyperlink r:id="rId27" ref="D28"/>
-    <hyperlink r:id="rId28" ref="D29"/>
-    <hyperlink r:id="rId29" ref="D30"/>
-    <hyperlink r:id="rId30" ref="D31"/>
-    <hyperlink r:id="rId31" ref="D32"/>
-    <hyperlink r:id="rId32" ref="D33"/>
-    <hyperlink r:id="rId33" ref="D34"/>
-    <hyperlink r:id="rId34" ref="D35"/>
-    <hyperlink r:id="rId35" ref="D36"/>
-    <hyperlink r:id="rId36" ref="D37"/>
-    <hyperlink r:id="rId37" ref="D38"/>
-    <hyperlink r:id="rId38" ref="D39"/>
-    <hyperlink r:id="rId39" ref="D40"/>
-    <hyperlink r:id="rId40" ref="D41"/>
-    <hyperlink r:id="rId41" ref="D42"/>
-    <hyperlink r:id="rId42" ref="D43"/>
-    <hyperlink r:id="rId43" ref="D44"/>
-    <hyperlink r:id="rId44" ref="D45"/>
-    <hyperlink r:id="rId45" ref="D46"/>
-    <hyperlink r:id="rId46" ref="D47"/>
-    <hyperlink r:id="rId47" ref="D48"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
   </hyperlinks>
-  <drawing r:id="rId48"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>